--- a/صيدليات دكتور مصطفي طلعت_2026-01-17_18-22.xlsx
+++ b/صيدليات دكتور مصطفي طلعت_2026-01-17_18-22.xlsx
@@ -32,15 +32,18 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
+    <t>ALLERGYL 2MG/5ML SYRUP 120ML</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
     <t>ALOEKITA DS HAIR SHAMPOO 250 ML</t>
   </si>
   <si>
-    <t>0:0</t>
-  </si>
-  <si>
-    <t>1:0</t>
-  </si>
-  <si>
     <t>ATOREZA 20/10MG 21 F.C. TAB.</t>
   </si>
   <si>
@@ -206,6 +209,12 @@
     <t>TRIACTIN 4MG 20 TAB</t>
   </si>
   <si>
+    <t>UNICTAM 750 MG I.M/I.V VIAL</t>
+  </si>
+  <si>
+    <t>5:0</t>
+  </si>
+  <si>
     <t>VITAMIN E 400MG 24 SOFT GELATIN CAPS.</t>
   </si>
   <si>
@@ -248,16 +257,13 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>89:0</t>
+    <t>91:0</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
   </si>
   <si>
-    <t>-6:0</t>
-  </si>
-  <si>
-    <t>9:0</t>
+    <t>-1:0</t>
   </si>
   <si>
     <t xml:space="preserve">شفرات فينوس حريمي </t>
@@ -279,9 +285,6 @@
   </si>
   <si>
     <t xml:space="preserve">كالونا </t>
-  </si>
-  <si>
-    <t>-1:0</t>
   </si>
   <si>
     <t>كريم فيرند لافلي الصغير</t>
@@ -904,7 +907,7 @@
       <c r="J4" s="8"/>
       <c r="K4" s="8"/>
       <c r="L4" s="9">
-        <v>229</v>
+        <v>26</v>
       </c>
       <c r="M4" s="9"/>
       <c t="s" r="N4" s="7">
@@ -924,13 +927,13 @@
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
       <c t="s" r="H5" s="8">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="I5" s="8"/>
       <c r="J5" s="8"/>
       <c r="K5" s="8"/>
       <c r="L5" s="9">
-        <v>141</v>
+        <v>229</v>
       </c>
       <c r="M5" s="9"/>
       <c t="s" r="N5" s="7">
@@ -942,7 +945,7 @@
         <v>3</v>
       </c>
       <c t="s" r="B6" s="7">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
@@ -950,17 +953,17 @@
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
       <c t="s" r="H6" s="8">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I6" s="8"/>
       <c r="J6" s="8"/>
       <c r="K6" s="8"/>
       <c r="L6" s="9">
-        <v>19</v>
+        <v>141</v>
       </c>
       <c r="M6" s="9"/>
       <c t="s" r="N6" s="7">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" ht="25.5" customHeight="1">
@@ -968,7 +971,7 @@
         <v>4</v>
       </c>
       <c t="s" r="B7" s="7">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
@@ -976,17 +979,17 @@
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
       <c t="s" r="H7" s="8">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="I7" s="8"/>
       <c r="J7" s="8"/>
       <c r="K7" s="8"/>
       <c r="L7" s="9">
-        <v>219</v>
+        <v>19</v>
       </c>
       <c r="M7" s="9"/>
       <c t="s" r="N7" s="7">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" ht="25.5" customHeight="1">
@@ -1002,13 +1005,13 @@
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
       <c t="s" r="H8" s="8">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I8" s="8"/>
       <c r="J8" s="8"/>
       <c r="K8" s="8"/>
       <c r="L8" s="9">
-        <v>64</v>
+        <v>219</v>
       </c>
       <c r="M8" s="9"/>
       <c t="s" r="N8" s="7">
@@ -1020,7 +1023,7 @@
         <v>6</v>
       </c>
       <c t="s" r="B9" s="7">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
@@ -1028,17 +1031,17 @@
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
       <c t="s" r="H9" s="8">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="I9" s="8"/>
       <c r="J9" s="8"/>
       <c r="K9" s="8"/>
       <c r="L9" s="9">
-        <v>27</v>
+        <v>64</v>
       </c>
       <c r="M9" s="9"/>
       <c t="s" r="N9" s="7">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" ht="25.5" customHeight="1">
@@ -1054,17 +1057,17 @@
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
       <c t="s" r="H10" s="8">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="I10" s="8"/>
       <c r="J10" s="8"/>
       <c r="K10" s="8"/>
       <c r="L10" s="9">
-        <v>118</v>
+        <v>27</v>
       </c>
       <c r="M10" s="9"/>
       <c t="s" r="N10" s="7">
-        <v>20</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" ht="24.75" customHeight="1">
@@ -1072,7 +1075,7 @@
         <v>8</v>
       </c>
       <c t="s" r="B11" s="7">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C11" s="7"/>
       <c r="D11" s="7"/>
@@ -1080,7 +1083,7 @@
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
       <c t="s" r="H11" s="8">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="I11" s="8"/>
       <c r="J11" s="8"/>
@@ -1090,7 +1093,7 @@
       </c>
       <c r="M11" s="9"/>
       <c t="s" r="N11" s="7">
-        <v>9</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1106,17 +1109,17 @@
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
       <c t="s" r="H12" s="8">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="I12" s="8"/>
       <c r="J12" s="8"/>
       <c r="K12" s="8"/>
       <c r="L12" s="9">
-        <v>21</v>
+        <v>118</v>
       </c>
       <c r="M12" s="9"/>
       <c t="s" r="N12" s="7">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" ht="25.5" customHeight="1">
@@ -1124,7 +1127,7 @@
         <v>10</v>
       </c>
       <c t="s" r="B13" s="7">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
@@ -1132,17 +1135,17 @@
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
       <c t="s" r="H13" s="8">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="I13" s="8"/>
       <c r="J13" s="8"/>
       <c r="K13" s="8"/>
       <c r="L13" s="9">
-        <v>58</v>
+        <v>21</v>
       </c>
       <c r="M13" s="9"/>
       <c t="s" r="N13" s="7">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" ht="24.75" customHeight="1">
@@ -1158,17 +1161,17 @@
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
       <c t="s" r="H14" s="8">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I14" s="8"/>
       <c r="J14" s="8"/>
       <c r="K14" s="8"/>
       <c r="L14" s="9">
-        <v>95</v>
+        <v>58</v>
       </c>
       <c r="M14" s="9"/>
       <c t="s" r="N14" s="7">
-        <v>26</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15" ht="25.5" customHeight="1">
@@ -1176,7 +1179,7 @@
         <v>12</v>
       </c>
       <c t="s" r="B15" s="7">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
@@ -1184,17 +1187,17 @@
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
       <c t="s" r="H15" s="8">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="I15" s="8"/>
       <c r="J15" s="8"/>
       <c r="K15" s="8"/>
       <c r="L15" s="9">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="M15" s="9"/>
       <c t="s" r="N15" s="7">
-        <v>9</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" ht="24.75" customHeight="1">
@@ -1210,17 +1213,17 @@
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
       <c t="s" r="H16" s="8">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="I16" s="8"/>
       <c r="J16" s="8"/>
       <c r="K16" s="8"/>
       <c r="L16" s="9">
-        <v>60</v>
+        <v>83</v>
       </c>
       <c r="M16" s="9"/>
       <c t="s" r="N16" s="7">
-        <v>30</v>
+        <v>9</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1228,7 +1231,7 @@
         <v>14</v>
       </c>
       <c t="s" r="B17" s="7">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
@@ -1236,17 +1239,17 @@
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
       <c t="s" r="H17" s="8">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I17" s="8"/>
       <c r="J17" s="8"/>
       <c r="K17" s="8"/>
       <c r="L17" s="9">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="M17" s="9"/>
       <c t="s" r="N17" s="7">
-        <v>9</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18" ht="25.5" customHeight="1">
@@ -1254,7 +1257,7 @@
         <v>15</v>
       </c>
       <c t="s" r="B18" s="7">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
@@ -1262,17 +1265,17 @@
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
       <c t="s" r="H18" s="8">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I18" s="8"/>
       <c r="J18" s="8"/>
       <c r="K18" s="8"/>
       <c r="L18" s="9">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="M18" s="9"/>
       <c t="s" r="N18" s="7">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19" ht="24.75" customHeight="1">
@@ -1280,7 +1283,7 @@
         <v>16</v>
       </c>
       <c t="s" r="B19" s="7">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
@@ -1288,17 +1291,17 @@
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
       <c t="s" r="H19" s="8">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="I19" s="8"/>
       <c r="J19" s="8"/>
       <c r="K19" s="8"/>
       <c r="L19" s="9">
-        <v>172</v>
+        <v>16</v>
       </c>
       <c r="M19" s="9"/>
       <c t="s" r="N19" s="7">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="20" ht="25.5" customHeight="1">
@@ -1320,7 +1323,7 @@
       <c r="J20" s="8"/>
       <c r="K20" s="8"/>
       <c r="L20" s="9">
-        <v>144</v>
+        <v>172</v>
       </c>
       <c r="M20" s="9"/>
       <c t="s" r="N20" s="7">
@@ -1346,7 +1349,7 @@
       <c r="J21" s="8"/>
       <c r="K21" s="8"/>
       <c r="L21" s="9">
-        <v>26</v>
+        <v>144</v>
       </c>
       <c r="M21" s="9"/>
       <c t="s" r="N21" s="7">
@@ -1366,13 +1369,13 @@
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
       <c t="s" r="H22" s="8">
-        <v>39</v>
+        <v>8</v>
       </c>
       <c r="I22" s="8"/>
       <c r="J22" s="8"/>
       <c r="K22" s="8"/>
       <c r="L22" s="9">
-        <v>51</v>
+        <v>26</v>
       </c>
       <c r="M22" s="9"/>
       <c t="s" r="N22" s="7">
@@ -1384,7 +1387,7 @@
         <v>20</v>
       </c>
       <c t="s" r="B23" s="7">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
@@ -1392,13 +1395,13 @@
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
       <c t="s" r="H23" s="8">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="I23" s="8"/>
       <c r="J23" s="8"/>
       <c r="K23" s="8"/>
       <c r="L23" s="9">
-        <v>135</v>
+        <v>51</v>
       </c>
       <c r="M23" s="9"/>
       <c t="s" r="N23" s="7">
@@ -1424,7 +1427,7 @@
       <c r="J24" s="8"/>
       <c r="K24" s="8"/>
       <c r="L24" s="9">
-        <v>198</v>
+        <v>135</v>
       </c>
       <c r="M24" s="9"/>
       <c t="s" r="N24" s="7">
@@ -1444,17 +1447,17 @@
       <c r="F25" s="7"/>
       <c r="G25" s="7"/>
       <c t="s" r="H25" s="8">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I25" s="8"/>
       <c r="J25" s="8"/>
       <c r="K25" s="8"/>
       <c r="L25" s="9">
-        <v>60</v>
+        <v>198</v>
       </c>
       <c r="M25" s="9"/>
       <c t="s" r="N25" s="7">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="26" ht="24.75" customHeight="1">
@@ -1470,17 +1473,17 @@
       <c r="F26" s="7"/>
       <c r="G26" s="7"/>
       <c t="s" r="H26" s="8">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I26" s="8"/>
       <c r="J26" s="8"/>
       <c r="K26" s="8"/>
       <c r="L26" s="9">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="M26" s="9"/>
       <c t="s" r="N26" s="7">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1502,7 +1505,7 @@
       <c r="J27" s="8"/>
       <c r="K27" s="8"/>
       <c r="L27" s="9">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="M27" s="9"/>
       <c t="s" r="N27" s="7">
@@ -1522,13 +1525,13 @@
       <c r="F28" s="7"/>
       <c r="G28" s="7"/>
       <c t="s" r="H28" s="8">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I28" s="8"/>
       <c r="J28" s="8"/>
       <c r="K28" s="8"/>
       <c r="L28" s="9">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="M28" s="9"/>
       <c t="s" r="N28" s="7">
@@ -1548,17 +1551,17 @@
       <c r="F29" s="7"/>
       <c r="G29" s="7"/>
       <c t="s" r="H29" s="8">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="I29" s="8"/>
       <c r="J29" s="8"/>
       <c r="K29" s="8"/>
       <c r="L29" s="9">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="M29" s="9"/>
       <c t="s" r="N29" s="7">
-        <v>47</v>
+        <v>9</v>
       </c>
     </row>
     <row r="30" ht="25.5" customHeight="1">
@@ -1566,7 +1569,7 @@
         <v>27</v>
       </c>
       <c t="s" r="B30" s="7">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C30" s="7"/>
       <c r="D30" s="7"/>
@@ -1574,17 +1577,17 @@
       <c r="F30" s="7"/>
       <c r="G30" s="7"/>
       <c t="s" r="H30" s="8">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="I30" s="8"/>
       <c r="J30" s="8"/>
       <c r="K30" s="8"/>
       <c r="L30" s="9">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="M30" s="9"/>
       <c t="s" r="N30" s="7">
-        <v>9</v>
+        <v>48</v>
       </c>
     </row>
     <row r="31" ht="24.75" customHeight="1">
@@ -1600,13 +1603,13 @@
       <c r="F31" s="7"/>
       <c r="G31" s="7"/>
       <c t="s" r="H31" s="8">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="I31" s="8"/>
       <c r="J31" s="8"/>
       <c r="K31" s="8"/>
       <c r="L31" s="9">
-        <v>128.25</v>
+        <v>55</v>
       </c>
       <c r="M31" s="9"/>
       <c t="s" r="N31" s="7">
@@ -1626,13 +1629,13 @@
       <c r="F32" s="7"/>
       <c r="G32" s="7"/>
       <c t="s" r="H32" s="8">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="I32" s="8"/>
       <c r="J32" s="8"/>
       <c r="K32" s="8"/>
       <c r="L32" s="9">
-        <v>66</v>
+        <v>128.25</v>
       </c>
       <c r="M32" s="9"/>
       <c t="s" r="N32" s="7">
@@ -1652,13 +1655,13 @@
       <c r="F33" s="7"/>
       <c r="G33" s="7"/>
       <c t="s" r="H33" s="8">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I33" s="8"/>
       <c r="J33" s="8"/>
       <c r="K33" s="8"/>
       <c r="L33" s="9">
-        <v>390</v>
+        <v>66</v>
       </c>
       <c r="M33" s="9"/>
       <c t="s" r="N33" s="7">
@@ -1678,13 +1681,13 @@
       <c r="F34" s="7"/>
       <c r="G34" s="7"/>
       <c t="s" r="H34" s="8">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I34" s="8"/>
       <c r="J34" s="8"/>
       <c r="K34" s="8"/>
       <c r="L34" s="9">
-        <v>290</v>
+        <v>390</v>
       </c>
       <c r="M34" s="9"/>
       <c t="s" r="N34" s="7">
@@ -1704,17 +1707,17 @@
       <c r="F35" s="7"/>
       <c r="G35" s="7"/>
       <c t="s" r="H35" s="8">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="I35" s="8"/>
       <c r="J35" s="8"/>
       <c r="K35" s="8"/>
       <c r="L35" s="9">
-        <v>16</v>
+        <v>290</v>
       </c>
       <c r="M35" s="9"/>
       <c t="s" r="N35" s="7">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="36" ht="24.75" customHeight="1">
@@ -1730,17 +1733,17 @@
       <c r="F36" s="7"/>
       <c r="G36" s="7"/>
       <c t="s" r="H36" s="8">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="I36" s="8"/>
       <c r="J36" s="8"/>
       <c r="K36" s="8"/>
       <c r="L36" s="9">
-        <v>22.079999999999998</v>
+        <v>16</v>
       </c>
       <c r="M36" s="9"/>
       <c t="s" r="N36" s="7">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -1756,17 +1759,17 @@
       <c r="F37" s="7"/>
       <c r="G37" s="7"/>
       <c t="s" r="H37" s="8">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="I37" s="8"/>
       <c r="J37" s="8"/>
       <c r="K37" s="8"/>
       <c r="L37" s="9">
-        <v>102</v>
+        <v>22.079999999999998</v>
       </c>
       <c r="M37" s="9"/>
       <c t="s" r="N37" s="7">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="38" ht="25.5" customHeight="1">
@@ -1782,13 +1785,13 @@
       <c r="F38" s="7"/>
       <c r="G38" s="7"/>
       <c t="s" r="H38" s="8">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="I38" s="8"/>
       <c r="J38" s="8"/>
       <c r="K38" s="8"/>
       <c r="L38" s="9">
-        <v>65</v>
+        <v>102</v>
       </c>
       <c r="M38" s="9"/>
       <c t="s" r="N38" s="7">
@@ -1808,17 +1811,17 @@
       <c r="F39" s="7"/>
       <c r="G39" s="7"/>
       <c t="s" r="H39" s="8">
-        <v>58</v>
+        <v>9</v>
       </c>
       <c r="I39" s="8"/>
       <c r="J39" s="8"/>
       <c r="K39" s="8"/>
       <c r="L39" s="9">
-        <v>15</v>
+        <v>65</v>
       </c>
       <c r="M39" s="9"/>
       <c t="s" r="N39" s="7">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="40" ht="25.5" customHeight="1">
@@ -1826,7 +1829,7 @@
         <v>37</v>
       </c>
       <c t="s" r="B40" s="7">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C40" s="7"/>
       <c r="D40" s="7"/>
@@ -1834,17 +1837,17 @@
       <c r="F40" s="7"/>
       <c r="G40" s="7"/>
       <c t="s" r="H40" s="8">
-        <v>8</v>
+        <v>59</v>
       </c>
       <c r="I40" s="8"/>
       <c r="J40" s="8"/>
       <c r="K40" s="8"/>
       <c r="L40" s="9">
-        <v>130</v>
+        <v>15</v>
       </c>
       <c r="M40" s="9"/>
       <c t="s" r="N40" s="7">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="41" ht="24.75" customHeight="1">
@@ -1860,17 +1863,17 @@
       <c r="F41" s="7"/>
       <c r="G41" s="7"/>
       <c t="s" r="H41" s="8">
-        <v>61</v>
+        <v>8</v>
       </c>
       <c r="I41" s="8"/>
       <c r="J41" s="8"/>
       <c r="K41" s="8"/>
       <c r="L41" s="9">
-        <v>21</v>
+        <v>130</v>
       </c>
       <c r="M41" s="9"/>
       <c t="s" r="N41" s="7">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -1878,7 +1881,7 @@
         <v>39</v>
       </c>
       <c t="s" r="B42" s="7">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C42" s="7"/>
       <c r="D42" s="7"/>
@@ -1886,17 +1889,17 @@
       <c r="F42" s="7"/>
       <c r="G42" s="7"/>
       <c t="s" r="H42" s="8">
-        <v>8</v>
+        <v>62</v>
       </c>
       <c r="I42" s="8"/>
       <c r="J42" s="8"/>
       <c r="K42" s="8"/>
       <c r="L42" s="9">
-        <v>125</v>
+        <v>21</v>
       </c>
       <c r="M42" s="9"/>
       <c t="s" r="N42" s="7">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="43" ht="25.5" customHeight="1">
@@ -1912,17 +1915,17 @@
       <c r="F43" s="7"/>
       <c r="G43" s="7"/>
       <c t="s" r="H43" s="8">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="I43" s="8"/>
       <c r="J43" s="8"/>
       <c r="K43" s="8"/>
       <c r="L43" s="9">
-        <v>23</v>
+        <v>125</v>
       </c>
       <c r="M43" s="9"/>
       <c t="s" r="N43" s="7">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="44" ht="24.75" customHeight="1">
@@ -1938,7 +1941,7 @@
       <c r="F44" s="7"/>
       <c r="G44" s="7"/>
       <c t="s" r="H44" s="8">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I44" s="8"/>
       <c r="J44" s="8"/>
@@ -1948,7 +1951,7 @@
       </c>
       <c r="M44" s="9"/>
       <c t="s" r="N44" s="7">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="45" ht="25.5" customHeight="1">
@@ -1964,17 +1967,17 @@
       <c r="F45" s="7"/>
       <c r="G45" s="7"/>
       <c t="s" r="H45" s="8">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="I45" s="8"/>
       <c r="J45" s="8"/>
       <c r="K45" s="8"/>
       <c r="L45" s="9">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="M45" s="9"/>
       <c t="s" r="N45" s="7">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="46" ht="24.75" customHeight="1">
@@ -1990,7 +1993,7 @@
       <c r="F46" s="7"/>
       <c r="G46" s="7"/>
       <c t="s" r="H46" s="8">
-        <v>9</v>
+        <v>67</v>
       </c>
       <c r="I46" s="8"/>
       <c r="J46" s="8"/>
@@ -2008,7 +2011,7 @@
         <v>44</v>
       </c>
       <c t="s" r="B47" s="7">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C47" s="7"/>
       <c r="D47" s="7"/>
@@ -2016,17 +2019,17 @@
       <c r="F47" s="7"/>
       <c r="G47" s="7"/>
       <c t="s" r="H47" s="8">
-        <v>68</v>
+        <v>9</v>
       </c>
       <c r="I47" s="8"/>
       <c r="J47" s="8"/>
       <c r="K47" s="8"/>
       <c r="L47" s="9">
-        <v>51</v>
+        <v>25</v>
       </c>
       <c r="M47" s="9"/>
       <c t="s" r="N47" s="7">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="48" ht="25.5" customHeight="1">
@@ -2042,17 +2045,17 @@
       <c r="F48" s="7"/>
       <c r="G48" s="7"/>
       <c t="s" r="H48" s="8">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="I48" s="8"/>
       <c r="J48" s="8"/>
       <c r="K48" s="8"/>
       <c r="L48" s="9">
-        <v>66</v>
+        <v>39</v>
       </c>
       <c r="M48" s="9"/>
       <c t="s" r="N48" s="7">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="49" ht="24.75" customHeight="1">
@@ -2074,7 +2077,7 @@
       <c r="J49" s="8"/>
       <c r="K49" s="8"/>
       <c r="L49" s="9">
-        <v>2.5</v>
+        <v>51</v>
       </c>
       <c r="M49" s="9"/>
       <c t="s" r="N49" s="7">
@@ -2094,17 +2097,17 @@
       <c r="F50" s="7"/>
       <c r="G50" s="7"/>
       <c t="s" r="H50" s="8">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="I50" s="8"/>
       <c r="J50" s="8"/>
       <c r="K50" s="8"/>
       <c r="L50" s="9">
-        <v>48</v>
+        <v>66</v>
       </c>
       <c r="M50" s="9"/>
       <c t="s" r="N50" s="7">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="51" ht="24.75" customHeight="1">
@@ -2120,13 +2123,13 @@
       <c r="F51" s="7"/>
       <c r="G51" s="7"/>
       <c t="s" r="H51" s="8">
-        <v>9</v>
+        <v>74</v>
       </c>
       <c r="I51" s="8"/>
       <c r="J51" s="8"/>
       <c r="K51" s="8"/>
       <c r="L51" s="9">
-        <v>95</v>
+        <v>2.5</v>
       </c>
       <c r="M51" s="9"/>
       <c t="s" r="N51" s="7">
@@ -2138,7 +2141,7 @@
         <v>49</v>
       </c>
       <c t="s" r="B52" s="7">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C52" s="7"/>
       <c r="D52" s="7"/>
@@ -2146,13 +2149,13 @@
       <c r="F52" s="7"/>
       <c r="G52" s="7"/>
       <c t="s" r="H52" s="8">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I52" s="8"/>
       <c r="J52" s="8"/>
       <c r="K52" s="8"/>
       <c r="L52" s="9">
-        <v>285</v>
+        <v>48</v>
       </c>
       <c r="M52" s="9"/>
       <c t="s" r="N52" s="7">
@@ -2164,7 +2167,7 @@
         <v>50</v>
       </c>
       <c t="s" r="B53" s="7">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C53" s="7"/>
       <c r="D53" s="7"/>
@@ -2172,13 +2175,13 @@
       <c r="F53" s="7"/>
       <c r="G53" s="7"/>
       <c t="s" r="H53" s="8">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="I53" s="8"/>
       <c r="J53" s="8"/>
       <c r="K53" s="8"/>
       <c r="L53" s="9">
-        <v>20</v>
+        <v>95</v>
       </c>
       <c r="M53" s="9"/>
       <c t="s" r="N53" s="7">
@@ -2190,7 +2193,7 @@
         <v>51</v>
       </c>
       <c t="s" r="B54" s="7">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C54" s="7"/>
       <c r="D54" s="7"/>
@@ -2198,17 +2201,17 @@
       <c r="F54" s="7"/>
       <c r="G54" s="7"/>
       <c t="s" r="H54" s="8">
-        <v>77</v>
+        <v>9</v>
       </c>
       <c r="I54" s="8"/>
       <c r="J54" s="8"/>
       <c r="K54" s="8"/>
       <c r="L54" s="9">
-        <v>8</v>
+        <v>285</v>
       </c>
       <c r="M54" s="9"/>
       <c t="s" r="N54" s="7">
-        <v>20</v>
+        <v>9</v>
       </c>
     </row>
     <row r="55" ht="25.5" customHeight="1">
@@ -2224,17 +2227,17 @@
       <c r="F55" s="7"/>
       <c r="G55" s="7"/>
       <c t="s" r="H55" s="8">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="I55" s="8"/>
       <c r="J55" s="8"/>
       <c r="K55" s="8"/>
       <c r="L55" s="9">
-        <v>178</v>
+        <v>20</v>
       </c>
       <c r="M55" s="9"/>
       <c t="s" r="N55" s="7">
-        <v>79</v>
+        <v>9</v>
       </c>
     </row>
     <row r="56" ht="24.75" customHeight="1">
@@ -2242,7 +2245,7 @@
         <v>53</v>
       </c>
       <c t="s" r="B56" s="7">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C56" s="7"/>
       <c r="D56" s="7"/>
@@ -2250,17 +2253,17 @@
       <c r="F56" s="7"/>
       <c r="G56" s="7"/>
       <c t="s" r="H56" s="8">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I56" s="8"/>
       <c r="J56" s="8"/>
       <c r="K56" s="8"/>
       <c r="L56" s="9">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="M56" s="9"/>
       <c t="s" r="N56" s="7">
-        <v>82</v>
+        <v>21</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2268,7 +2271,7 @@
         <v>54</v>
       </c>
       <c t="s" r="B57" s="7">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C57" s="7"/>
       <c r="D57" s="7"/>
@@ -2276,17 +2279,17 @@
       <c r="F57" s="7"/>
       <c r="G57" s="7"/>
       <c t="s" r="H57" s="8">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="I57" s="8"/>
       <c r="J57" s="8"/>
       <c r="K57" s="8"/>
       <c r="L57" s="9">
-        <v>40</v>
+        <v>182</v>
       </c>
       <c r="M57" s="9"/>
       <c t="s" r="N57" s="7">
-        <v>20</v>
+        <v>82</v>
       </c>
     </row>
     <row r="58" ht="25.5" customHeight="1">
@@ -2294,7 +2297,7 @@
         <v>55</v>
       </c>
       <c t="s" r="B58" s="7">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C58" s="7"/>
       <c r="D58" s="7"/>
@@ -2302,17 +2305,17 @@
       <c r="F58" s="7"/>
       <c r="G58" s="7"/>
       <c t="s" r="H58" s="8">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="I58" s="8"/>
       <c r="J58" s="8"/>
       <c r="K58" s="8"/>
       <c r="L58" s="9">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="M58" s="9"/>
       <c t="s" r="N58" s="7">
-        <v>9</v>
+        <v>35</v>
       </c>
     </row>
     <row r="59" ht="24.75" customHeight="1">
@@ -2320,7 +2323,7 @@
         <v>56</v>
       </c>
       <c t="s" r="B59" s="7">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C59" s="7"/>
       <c r="D59" s="7"/>
@@ -2328,17 +2331,17 @@
       <c r="F59" s="7"/>
       <c r="G59" s="7"/>
       <c t="s" r="H59" s="8">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="I59" s="8"/>
       <c r="J59" s="8"/>
       <c r="K59" s="8"/>
       <c r="L59" s="9">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="M59" s="9"/>
       <c t="s" r="N59" s="7">
-        <v>9</v>
+        <v>21</v>
       </c>
     </row>
     <row r="60" ht="25.5" customHeight="1">
@@ -2346,7 +2349,7 @@
         <v>57</v>
       </c>
       <c t="s" r="B60" s="7">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C60" s="7"/>
       <c r="D60" s="7"/>
@@ -2354,17 +2357,17 @@
       <c r="F60" s="7"/>
       <c r="G60" s="7"/>
       <c t="s" r="H60" s="8">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="I60" s="8"/>
       <c r="J60" s="8"/>
       <c r="K60" s="8"/>
       <c r="L60" s="9">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="M60" s="9"/>
       <c t="s" r="N60" s="7">
-        <v>20</v>
+        <v>9</v>
       </c>
     </row>
     <row r="61" ht="24.75" customHeight="1">
@@ -2372,7 +2375,7 @@
         <v>58</v>
       </c>
       <c t="s" r="B61" s="7">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C61" s="7"/>
       <c r="D61" s="7"/>
@@ -2380,13 +2383,13 @@
       <c r="F61" s="7"/>
       <c r="G61" s="7"/>
       <c t="s" r="H61" s="8">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="I61" s="8"/>
       <c r="J61" s="8"/>
       <c r="K61" s="8"/>
       <c r="L61" s="9">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="M61" s="9"/>
       <c t="s" r="N61" s="7">
@@ -2398,7 +2401,7 @@
         <v>59</v>
       </c>
       <c t="s" r="B62" s="7">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C62" s="7"/>
       <c r="D62" s="7"/>
@@ -2406,17 +2409,17 @@
       <c r="F62" s="7"/>
       <c r="G62" s="7"/>
       <c t="s" r="H62" s="8">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="I62" s="8"/>
       <c r="J62" s="8"/>
       <c r="K62" s="8"/>
       <c r="L62" s="9">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="M62" s="9"/>
       <c t="s" r="N62" s="7">
-        <v>9</v>
+        <v>21</v>
       </c>
     </row>
     <row r="63" ht="25.5" customHeight="1">
@@ -2424,7 +2427,7 @@
         <v>60</v>
       </c>
       <c t="s" r="B63" s="7">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C63" s="7"/>
       <c r="D63" s="7"/>
@@ -2432,17 +2435,17 @@
       <c r="F63" s="7"/>
       <c r="G63" s="7"/>
       <c t="s" r="H63" s="8">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="I63" s="8"/>
       <c r="J63" s="8"/>
       <c r="K63" s="8"/>
       <c r="L63" s="9">
-        <v>72</v>
+        <v>20</v>
       </c>
       <c r="M63" s="9"/>
       <c t="s" r="N63" s="7">
-        <v>86</v>
+        <v>9</v>
       </c>
     </row>
     <row r="64" ht="24.75" customHeight="1">
@@ -2450,7 +2453,7 @@
         <v>61</v>
       </c>
       <c t="s" r="B64" s="7">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C64" s="7"/>
       <c r="D64" s="7"/>
@@ -2458,13 +2461,13 @@
       <c r="F64" s="7"/>
       <c r="G64" s="7"/>
       <c t="s" r="H64" s="8">
-        <v>9</v>
+        <v>88</v>
       </c>
       <c r="I64" s="8"/>
       <c r="J64" s="8"/>
       <c r="K64" s="8"/>
       <c r="L64" s="9">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="M64" s="9"/>
       <c t="s" r="N64" s="7">
@@ -2476,7 +2479,7 @@
         <v>62</v>
       </c>
       <c t="s" r="B65" s="7">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C65" s="7"/>
       <c r="D65" s="7"/>
@@ -2484,51 +2487,103 @@
       <c r="F65" s="7"/>
       <c r="G65" s="7"/>
       <c t="s" r="H65" s="8">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="I65" s="8"/>
       <c r="J65" s="8"/>
       <c r="K65" s="8"/>
       <c r="L65" s="9">
-        <v>45</v>
+        <v>72</v>
       </c>
       <c r="M65" s="9"/>
       <c t="s" r="N65" s="7">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="66" ht="25.5" customHeight="1">
-      <c r="K66" s="10">
-        <v>4986.8299999999999</v>
-      </c>
-      <c r="L66" s="10"/>
-      <c r="M66" s="10"/>
-      <c r="N66" s="10"/>
-    </row>
-    <row r="67" ht="16.5" customHeight="1">
-      <c t="s" r="A67" s="11">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="66" ht="24.75" customHeight="1">
+      <c r="A66" s="6">
+        <v>63</v>
+      </c>
+      <c t="s" r="B66" s="7">
+        <v>97</v>
+      </c>
+      <c r="C66" s="7"/>
+      <c r="D66" s="7"/>
+      <c r="E66" s="7"/>
+      <c r="F66" s="7"/>
+      <c r="G66" s="7"/>
+      <c t="s" r="H66" s="8">
+        <v>9</v>
+      </c>
+      <c r="I66" s="8"/>
+      <c r="J66" s="8"/>
+      <c r="K66" s="8"/>
+      <c r="L66" s="9">
+        <v>70</v>
+      </c>
+      <c r="M66" s="9"/>
+      <c t="s" r="N66" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="67" ht="25.5" customHeight="1">
+      <c r="A67" s="6">
+        <v>64</v>
+      </c>
+      <c t="s" r="B67" s="7">
+        <v>98</v>
+      </c>
+      <c r="C67" s="7"/>
+      <c r="D67" s="7"/>
+      <c r="E67" s="7"/>
+      <c r="F67" s="7"/>
+      <c r="G67" s="7"/>
+      <c t="s" r="H67" s="8">
         <v>99</v>
       </c>
-      <c r="B67" s="11"/>
-      <c r="C67" s="11"/>
-      <c r="D67" s="11"/>
-      <c r="E67" s="11"/>
-      <c t="s" r="F67" s="12">
+      <c r="I67" s="8"/>
+      <c r="J67" s="8"/>
+      <c r="K67" s="8"/>
+      <c r="L67" s="9">
+        <v>45</v>
+      </c>
+      <c r="M67" s="9"/>
+      <c t="s" r="N67" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="68" ht="25.5" customHeight="1">
+      <c r="K68" s="10">
+        <v>5057.8299999999999</v>
+      </c>
+      <c r="L68" s="10"/>
+      <c r="M68" s="10"/>
+      <c r="N68" s="10"/>
+    </row>
+    <row r="69" ht="17.25" customHeight="1">
+      <c t="s" r="A69" s="11">
         <v>100</v>
       </c>
-      <c r="G67" s="12"/>
-      <c r="H67" s="13"/>
-      <c t="s" r="I67" s="14">
+      <c r="B69" s="11"/>
+      <c r="C69" s="11"/>
+      <c r="D69" s="11"/>
+      <c r="E69" s="11"/>
+      <c t="s" r="F69" s="12">
         <v>101</v>
       </c>
-      <c r="J67" s="14"/>
-      <c r="K67" s="14"/>
-      <c r="L67" s="14"/>
-      <c r="M67" s="14"/>
-      <c r="N67" s="14"/>
+      <c r="G69" s="12"/>
+      <c r="H69" s="13"/>
+      <c t="s" r="I69" s="14">
+        <v>102</v>
+      </c>
+      <c r="J69" s="14"/>
+      <c r="K69" s="14"/>
+      <c r="L69" s="14"/>
+      <c r="M69" s="14"/>
+      <c r="N69" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="197">
+  <mergeCells count="203">
     <mergeCell ref="C1:L1"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:I2"/>
@@ -2722,10 +2777,16 @@
     <mergeCell ref="B65:G65"/>
     <mergeCell ref="H65:K65"/>
     <mergeCell ref="L65:M65"/>
-    <mergeCell ref="K66:N66"/>
-    <mergeCell ref="A67:E67"/>
-    <mergeCell ref="F67:G67"/>
-    <mergeCell ref="I67:N67"/>
+    <mergeCell ref="B66:G66"/>
+    <mergeCell ref="H66:K66"/>
+    <mergeCell ref="L66:M66"/>
+    <mergeCell ref="B67:G67"/>
+    <mergeCell ref="H67:K67"/>
+    <mergeCell ref="L67:M67"/>
+    <mergeCell ref="K68:N68"/>
+    <mergeCell ref="A69:E69"/>
+    <mergeCell ref="F69:G69"/>
+    <mergeCell ref="I69:N69"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
